--- a/src/main/resources/baseline/flicker数据库设计.xlsx
+++ b/src/main/resources/baseline/flicker数据库设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\IDEAworkspace\flicker\src\main\java\com\example\flicker\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\flicker\workspace\flicker\src\main\resources\baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>字段</t>
   </si>
@@ -276,6 +276,198 @@
   </si>
   <si>
     <t>JENDER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABYSS_RECORD（深渊记录）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhcar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhcar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_LEVEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图难度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTEMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTEMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_TICKETS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_TICKETS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始票数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束票数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhcar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPIC_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPAR_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶石数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERFUL_EPIC_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用的史诗数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADUATION_EPIC_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业级史诗数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEEDBACK_RATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回票率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧气值增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧气值增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥60%，欧气值增加，具体规则待定，反之减少</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +622,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1051,10 +1255,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1064,16 +1268,16 @@
     <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1089,11 +1293,11 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1109,11 +1313,11 @@
       <c r="E3" s="3">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1129,9 +1333,9 @@
       <c r="E4" s="3">
         <v>40</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1147,11 +1351,11 @@
       <c r="E5" s="3">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1167,9 +1371,9 @@
       <c r="E6" s="3">
         <v>40</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1185,9 +1389,9 @@
       <c r="E7" s="3">
         <v>40</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1203,11 +1407,11 @@
       <c r="E8" s="3">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1223,9 +1427,9 @@
       <c r="E9" s="3">
         <v>40</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1241,11 +1445,350 @@
       <c r="E10" s="3">
         <v>40</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="3">
+        <v>40</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="3">
+        <v>40</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3">
+        <v>40</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3">
+        <v>40</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3">
+        <v>40</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3">
+        <v>40</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="3">
+        <v>40</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="3">
+        <v>40</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="3">
+        <v>40</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="13" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
